--- a/codense-sales-sheet-1.xlsx
+++ b/codense-sales-sheet-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajatjain/Desktop/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E96E36-28AB-724B-8F44-2FFAA16D5045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC6039E-18A9-0C42-88CE-8744C34F7A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="680" windowWidth="28040" windowHeight="17420" xr2:uid="{DB076C67-E2C6-1345-A3D9-B83405672A2D}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17060" xr2:uid="{DB076C67-E2C6-1345-A3D9-B83405672A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="20">
   <si>
     <t>Salesperson</t>
   </si>
@@ -59,24 +59,12 @@
     <t>East</t>
   </si>
   <si>
-    <t>$925.00</t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
-    <t>$875.00</t>
-  </si>
-  <si>
     <t>February</t>
   </si>
   <si>
-    <t>$500.00</t>
-  </si>
-  <si>
-    <t>$350.00</t>
-  </si>
-  <si>
     <t>March</t>
   </si>
   <si>
@@ -86,112 +74,37 @@
     <t>West</t>
   </si>
   <si>
-    <t>$400.00</t>
-  </si>
-  <si>
-    <t>$850.00</t>
-  </si>
-  <si>
-    <t>$1,500.00</t>
-  </si>
-  <si>
-    <t>$550.00</t>
-  </si>
-  <si>
     <t>Davis, William</t>
   </si>
   <si>
     <t>South</t>
   </si>
   <si>
-    <t>$235.00</t>
-  </si>
-  <si>
-    <t>$600.00</t>
-  </si>
-  <si>
-    <t>$250.00</t>
-  </si>
-  <si>
     <t>Dumlao, Richard</t>
   </si>
   <si>
-    <t>$965.00</t>
-  </si>
-  <si>
-    <t>$125.00</t>
-  </si>
-  <si>
     <t>Flores, Tia</t>
   </si>
   <si>
-    <t>$305.00</t>
-  </si>
-  <si>
-    <t>$1,350.00</t>
-  </si>
-  <si>
-    <t>$435.00</t>
-  </si>
-  <si>
-    <t>$425.00</t>
-  </si>
-  <si>
     <t>Post, Melissa</t>
   </si>
   <si>
-    <t>$765.00</t>
-  </si>
-  <si>
-    <t>$150.00</t>
-  </si>
-  <si>
     <t>Thompson, Shannon</t>
   </si>
   <si>
     <t>North</t>
   </si>
   <si>
-    <t>$265.00</t>
-  </si>
-  <si>
-    <t>$375.00</t>
-  </si>
-  <si>
-    <t>$1,345.00</t>
-  </si>
-  <si>
-    <t>$300.00</t>
-  </si>
-  <si>
     <t>Walters, Chris</t>
-  </si>
-  <si>
-    <t>$225.00</t>
-  </si>
-  <si>
-    <t>$105.00</t>
-  </si>
-  <si>
-    <t>$25.00</t>
-  </si>
-  <si>
-    <t>$155.00</t>
-  </si>
-  <si>
-    <t>$2,600.00</t>
-  </si>
-  <si>
-    <t>$785.00</t>
-  </si>
-  <si>
-    <t>$255.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -221,13 +134,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;#,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -247,7 +165,7 @@
     <tableColumn id="1" xr3:uid="{D1EC7472-1C2B-8A44-BE70-83C3DCF32814}" name="Salesperson"/>
     <tableColumn id="2" xr3:uid="{53325C96-B551-6341-8374-52BC3E039579}" name="Region"/>
     <tableColumn id="3" xr3:uid="{36DECF02-7385-1F42-BD7A-16D5C982FF1D}" name="Account"/>
-    <tableColumn id="4" xr3:uid="{574126AF-39F8-B543-AFC6-96E18D5E49F9}" name="Order Amount"/>
+    <tableColumn id="4" xr3:uid="{574126AF-39F8-B543-AFC6-96E18D5E49F9}" name="Order Amount" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{07F84DF4-82CD-914C-8009-700EC93C72D2}" name="Month"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -553,9 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD76F6F4-D984-6E4C-A92D-140DE6FE6330}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -564,6 +480,8 @@
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -593,11 +511,11 @@
       <c r="C2">
         <v>29386</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" s="1">
+        <v>2174</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -610,11 +528,11 @@
       <c r="C3">
         <v>74830</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="D3" s="1">
+        <v>10469</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -627,11 +545,11 @@
       <c r="C4">
         <v>90099</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4" s="1">
+        <v>30283</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -644,322 +562,322 @@
       <c r="C5">
         <v>74830</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="D5" s="1">
+        <v>8536</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>82853</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="D6" s="1">
+        <v>19757</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>72949</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
+      <c r="D7" s="1">
+        <v>12890</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>90044</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
+      <c r="D8" s="1">
+        <v>37542</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>82853</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
+      <c r="D9" s="1">
+        <v>29218</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>72949</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
+      <c r="D10" s="1">
+        <v>4811</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>55223</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
+      <c r="D11" s="1">
+        <v>20937</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>10354</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
+      <c r="D12" s="1">
+        <v>33659</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>50192</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
+      <c r="D13" s="1">
+        <v>7594</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>27589</v>
       </c>
-      <c r="D14" t="s">
-        <v>24</v>
+      <c r="D14" s="1">
+        <v>18361</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>67275</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
+      <c r="D15" s="1">
+        <v>29585</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>41828</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
+      <c r="D16" s="1">
+        <v>10863</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>87543</v>
       </c>
-      <c r="D17" t="s">
-        <v>27</v>
+      <c r="D17" s="1">
+        <v>24492</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>97446</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
+      <c r="D18" s="1">
+        <v>6257</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>41400</v>
       </c>
-      <c r="D19" t="s">
-        <v>29</v>
+      <c r="D19" s="1">
+        <v>31905</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>30974</v>
       </c>
-      <c r="D20" t="s">
-        <v>30</v>
+      <c r="D20" s="1">
+        <v>13927</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>41400</v>
       </c>
-      <c r="D21" t="s">
-        <v>31</v>
+      <c r="D21" s="1">
+        <v>27189</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>30974</v>
       </c>
-      <c r="D22" t="s">
-        <v>19</v>
+      <c r="D22" s="1">
+        <v>1624</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>30974</v>
       </c>
-      <c r="D23" t="s">
-        <v>32</v>
+      <c r="D23" s="1">
+        <v>38777</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -967,16 +885,16 @@
       <c r="C24">
         <v>78532</v>
       </c>
-      <c r="D24" t="s">
-        <v>34</v>
+      <c r="D24" s="1">
+        <v>9533</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -984,16 +902,16 @@
       <c r="C25">
         <v>78532</v>
       </c>
-      <c r="D25" t="s">
-        <v>35</v>
+      <c r="D25" s="1">
+        <v>21815</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1001,16 +919,16 @@
       <c r="C26">
         <v>65532</v>
       </c>
-      <c r="D26" t="s">
-        <v>32</v>
+      <c r="D26" s="1">
+        <v>12641</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1018,232 +936,232 @@
       <c r="C27">
         <v>78532</v>
       </c>
-      <c r="D27" t="s">
-        <v>12</v>
+      <c r="D27" s="1">
+        <v>35097</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>91987</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
+      <c r="D28" s="1">
+        <v>2920</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>91041</v>
       </c>
-      <c r="D29" t="s">
-        <v>38</v>
+      <c r="D29" s="1">
+        <v>17364</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>91987</v>
       </c>
-      <c r="D30" t="s">
-        <v>39</v>
+      <c r="D30" s="1">
+        <v>4087</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>91041</v>
       </c>
-      <c r="D31" t="s">
-        <v>40</v>
+      <c r="D31" s="1">
+        <v>29681</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>91987</v>
       </c>
-      <c r="D32" t="s">
-        <v>41</v>
+      <c r="D32" s="1">
+        <v>6756</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>55667</v>
       </c>
-      <c r="D33" t="s">
-        <v>43</v>
+      <c r="D33" s="1">
+        <v>21349</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>54393</v>
       </c>
-      <c r="D34" t="s">
-        <v>44</v>
+      <c r="D34" s="1">
+        <v>14011</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C35">
         <v>40028</v>
       </c>
-      <c r="D35" t="s">
-        <v>45</v>
+      <c r="D35" s="1">
+        <v>27005</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <v>55667</v>
       </c>
-      <c r="D36" t="s">
-        <v>46</v>
+      <c r="D36" s="1">
+        <v>9572</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C37">
         <v>54393</v>
       </c>
-      <c r="D37" t="s">
-        <v>47</v>
+      <c r="D37" s="1">
+        <v>30259</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>54393</v>
       </c>
-      <c r="D38" t="s">
-        <v>43</v>
+      <c r="D38" s="1">
+        <v>16747</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>55667</v>
       </c>
-      <c r="D39" t="s">
-        <v>48</v>
+      <c r="D39" s="1">
+        <v>3848</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>27589</v>
       </c>
-      <c r="D40" t="s">
-        <v>49</v>
+      <c r="D40" s="1">
+        <v>25060</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
